--- a/tableau_files/tableau_table_3.xlsx
+++ b/tableau_files/tableau_table_3.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E3A91-EDB3-4BC4-99BA-EF6B0DECBE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="results-20221018-162117" sheetId="1" r:id="rId4"/>
+    <sheet name="results-20221206-105540" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -715,60 +724,61 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Northern Cyprus</t>
+  </si>
+  <si>
     <t>International</t>
-  </si>
-  <si>
-    <t>Northern Cyprus</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Pitcairn</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>United States Virgin Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -779,39 +789,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1001,23 +1016,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,3423 +1054,3424 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>896007.0</v>
+        <v>896007</v>
       </c>
       <c r="C2" s="1">
-        <v>593542.0</v>
+        <v>593542</v>
       </c>
       <c r="D2" s="1">
-        <v>66.2430092622044</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>66.243009262204396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>52888.0</v>
+        <v>52888</v>
       </c>
       <c r="C3" s="1">
-        <v>34658.0</v>
+        <v>34658</v>
       </c>
       <c r="D3" s="1">
-        <v>65.5309332929965</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>65.530933292996494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>33746.0</v>
+        <v>33746</v>
       </c>
       <c r="C4" s="1">
-        <v>21245.0</v>
+        <v>21245</v>
       </c>
       <c r="D4" s="1">
-        <v>62.9556095537248</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>62.955609553724798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>32670.0</v>
+        <v>32670</v>
       </c>
       <c r="C5" s="1">
-        <v>20121.0</v>
+        <v>20121</v>
       </c>
       <c r="D5" s="1">
-        <v>61.5886134067952</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>61.588613406795197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>8922082.0</v>
+        <v>8922082</v>
       </c>
       <c r="C6" s="1">
-        <v>5340548.0</v>
+        <v>5340548</v>
       </c>
       <c r="D6" s="1">
         <v>59.857643092722</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>79034.0</v>
+        <v>79034</v>
       </c>
       <c r="C7" s="1">
-        <v>46366.0</v>
+        <v>46366</v>
       </c>
       <c r="D7" s="1">
-        <v>58.6658906293493</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>58.665890629349299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>2119410.0</v>
+        <v>2119410</v>
       </c>
       <c r="C8" s="1">
-        <v>1215720.0</v>
+        <v>1215720</v>
       </c>
       <c r="D8" s="1">
         <v>57.3612467620705</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>5854240.0</v>
+        <v>5854240</v>
       </c>
       <c r="C9" s="1">
-        <v>3317617.0</v>
+        <v>3317617</v>
       </c>
       <c r="D9" s="1">
-        <v>56.6703278307688</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>56.670327830768798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>370335.0</v>
+        <v>370335</v>
       </c>
       <c r="C10" s="1">
-        <v>205963.0</v>
+        <v>205963</v>
       </c>
       <c r="D10" s="1">
-        <v>55.6153212631806</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>55.615321263180597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>5883.0</v>
+        <v>5883</v>
       </c>
       <c r="C11" s="1">
-        <v>3231.0</v>
+        <v>3231</v>
       </c>
       <c r="D11" s="1">
         <v>54.9209586945436</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>6.7422E7</v>
+        <v>67422000</v>
       </c>
       <c r="C12" s="1">
-        <v>3.6223509E7</v>
+        <v>36223509</v>
       </c>
       <c r="D12" s="1">
-        <v>53.7265417816143</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>53.726541781614301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0290103E7</v>
+        <v>10290103</v>
       </c>
       <c r="C13" s="1">
-        <v>5509424.0</v>
+        <v>5509424</v>
       </c>
       <c r="D13" s="1">
-        <v>53.5409995410152</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>53.540999541015204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>39039.0</v>
+        <v>39039</v>
       </c>
       <c r="C14" s="1">
-        <v>20325.0</v>
+        <v>20325</v>
       </c>
       <c r="D14" s="1">
         <v>52.0633212940905</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>445373.0</v>
+        <v>445373</v>
       </c>
       <c r="C15" s="1">
-        <v>231833.0</v>
+        <v>231833</v>
       </c>
       <c r="D15" s="1">
-        <v>52.0536718660538</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>52.053671866053797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>3764.0</v>
+        <v>3764</v>
       </c>
       <c r="C16" s="1">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="D16" s="1">
-        <v>51.2752391073326</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>51.275239107332602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>1873919.0</v>
+        <v>1873919</v>
       </c>
       <c r="C17" s="1">
-        <v>942923.0</v>
+        <v>942923</v>
       </c>
       <c r="D17" s="1">
         <v>50.3182368074607</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>9291000.0</v>
+        <v>9291000</v>
       </c>
       <c r="C18" s="1">
-        <v>4672722.0</v>
+        <v>4672722</v>
       </c>
       <c r="D18" s="1">
-        <v>50.2929932192444</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>50.292993219244401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7501696E7</v>
+        <v>17501696</v>
       </c>
       <c r="C19" s="1">
-        <v>8486811.0</v>
+        <v>8486811</v>
       </c>
       <c r="D19" s="1">
-        <v>48.4913633513003</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>48.491363351300301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>5.1830139E7</v>
+        <v>51830139</v>
       </c>
       <c r="C20" s="1">
-        <v>2.5131505E7</v>
+        <v>25131505</v>
       </c>
       <c r="D20" s="1">
-        <v>48.4882068327078</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>48.488206832707803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>5447622.0</v>
+        <v>5447622</v>
       </c>
       <c r="C21" s="1">
-        <v>2636880.0</v>
+        <v>2636880</v>
       </c>
       <c r="D21" s="1">
-        <v>48.4042395011988</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>48.404239501198802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0445365E7</v>
+        <v>10445365</v>
       </c>
       <c r="C22" s="1">
-        <v>5026494.0</v>
+        <v>5026494</v>
       </c>
       <c r="D22" s="1">
-        <v>48.1217650125199</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>48.121765012519901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>8691406.0</v>
+        <v>8691406</v>
       </c>
       <c r="C23" s="1">
-        <v>4164685.0</v>
+        <v>4164685</v>
       </c>
       <c r="D23" s="1">
-        <v>47.9172759850362</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>47.917275985036198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>3757980.0</v>
+        <v>3757980</v>
       </c>
       <c r="C24" s="1">
-        <v>1780691.0</v>
+        <v>1780691</v>
       </c>
       <c r="D24" s="1">
-        <v>47.3842596288431</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>47.384259628843097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>1463265.0</v>
+        <v>1463265</v>
       </c>
       <c r="C25" s="1">
-        <v>685602.0</v>
+        <v>685602</v>
       </c>
       <c r="D25" s="1">
-        <v>46.8542608481717</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>46.854260848171698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>639321.0</v>
+        <v>639321</v>
       </c>
       <c r="C26" s="1">
-        <v>297757.0</v>
+        <v>297757</v>
       </c>
       <c r="D26" s="1">
-        <v>46.5739432929623</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>46.573943292962298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>1328701.0</v>
+        <v>1328701</v>
       </c>
       <c r="C27" s="1">
-        <v>604552.0</v>
+        <v>604552</v>
       </c>
       <c r="D27" s="1">
-        <v>45.4994765564261</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>45.499476556426103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1">
-        <v>2786651.0</v>
+        <v>2786651</v>
       </c>
       <c r="C28" s="1">
-        <v>1261596.0</v>
+        <v>1261596</v>
       </c>
       <c r="D28" s="1">
-        <v>45.2728382563873</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>45.272838256387303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="1">
-        <v>68136.0</v>
+        <v>68136</v>
       </c>
       <c r="C29" s="1">
-        <v>30809.0</v>
+        <v>30809</v>
       </c>
       <c r="D29" s="1">
         <v>45.2169191029705</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>84263.0</v>
+        <v>84263</v>
       </c>
       <c r="C30" s="1">
-        <v>38008.0</v>
+        <v>38008</v>
       </c>
       <c r="D30" s="1">
-        <v>45.1063930788127</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>45.106393078812701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="1">
-        <v>627859.0</v>
+        <v>627859</v>
       </c>
       <c r="C31" s="1">
-        <v>281835.0</v>
+        <v>281835</v>
       </c>
       <c r="D31" s="1">
-        <v>44.888263129142</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>44.888263129141997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>106470.0</v>
+        <v>106470</v>
       </c>
       <c r="C32" s="1">
-        <v>47141.0</v>
+        <v>47141</v>
       </c>
       <c r="D32" s="1">
-        <v>44.2763219686296</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>44.276321968629603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>26706.0</v>
+        <v>26706</v>
       </c>
       <c r="C33" s="1">
-        <v>11395.0</v>
+        <v>11395</v>
       </c>
       <c r="D33" s="1">
-        <v>42.6683142365011</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>42.668314236501097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>8.3408554E7</v>
+        <v>83408554</v>
       </c>
       <c r="C34" s="1">
-        <v>3.4608837E7</v>
+        <v>34608837</v>
       </c>
       <c r="D34" s="1">
-        <v>41.4931506905155</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>41.493150690515499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1">
-        <v>106536.0</v>
+        <v>106536</v>
       </c>
       <c r="C35" s="1">
-        <v>44145.0</v>
+        <v>44145</v>
       </c>
       <c r="D35" s="1">
-        <v>41.4366974543816</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>41.436697454381601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>36686.0</v>
+        <v>36686</v>
       </c>
       <c r="C36" s="1">
-        <v>14790.0</v>
+        <v>14790</v>
       </c>
       <c r="D36" s="1">
-        <v>40.3151065801668</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>40.315106580166798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>2.5921089E7</v>
+        <v>25921089</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0310525E7</v>
+        <v>10310525</v>
       </c>
       <c r="D37" s="1">
-        <v>39.7765888616793</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>39.776588861679301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="1">
-        <v>1.161142E7</v>
+        <v>11611420</v>
       </c>
       <c r="C38" s="1">
-        <v>4586564.0</v>
+        <v>4586564</v>
       </c>
       <c r="D38" s="1">
         <v>39.5004573084084</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1">
-        <v>1.051075E7</v>
+        <v>10510750</v>
       </c>
       <c r="C39" s="1">
-        <v>4141069.0</v>
+        <v>4141069</v>
       </c>
       <c r="D39" s="1">
-        <v>39.3984159075232</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>39.398415907523201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="1">
-        <v>5.924033E7</v>
+        <v>59240330</v>
       </c>
       <c r="C40" s="1">
-        <v>2.3099983E7</v>
+        <v>23099983</v>
       </c>
       <c r="D40" s="1">
-        <v>38.9936771115218</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>38.993677111521798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="1">
-        <v>4.47593544E8</v>
+        <v>447593544</v>
       </c>
       <c r="C41" s="1">
-        <v>1.7130705E8</v>
+        <v>171307050</v>
       </c>
       <c r="D41" s="1">
-        <v>38.272904579696</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>38.272904579695997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="1">
-        <v>17003.0</v>
+        <v>17003</v>
       </c>
       <c r="C42" s="1">
-        <v>6389.0</v>
+        <v>6389</v>
       </c>
       <c r="D42" s="1">
         <v>37.5757219314238</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="1">
-        <v>5453600.0</v>
+        <v>5453600</v>
       </c>
       <c r="C43" s="1">
-        <v>2012065.0</v>
+        <v>2012065</v>
       </c>
       <c r="D43" s="1">
-        <v>36.8942533372451</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>36.894253337245097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="1">
-        <v>12512.0</v>
+        <v>12512</v>
       </c>
       <c r="C44" s="1">
-        <v>4611.0</v>
+        <v>4611</v>
       </c>
       <c r="D44" s="1">
-        <v>36.8526214833759</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>36.852621483375898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="1">
-        <v>281200.0</v>
+        <v>281200</v>
       </c>
       <c r="C45" s="1">
-        <v>103014.0</v>
+        <v>103014</v>
       </c>
       <c r="D45" s="1">
-        <v>36.6337126600284</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>36.633712660028401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="C46" s="1">
-        <v>15375.0</v>
+        <v>15375</v>
       </c>
       <c r="D46" s="1">
-        <v>36.5636147443519</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>36.563614744351902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="1">
-        <v>5404.0</v>
+        <v>5404</v>
       </c>
       <c r="C47" s="1">
-        <v>1973.0</v>
+        <v>1973</v>
       </c>
       <c r="D47" s="1">
-        <v>36.5099925980755</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>36.509992598075499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="1">
-        <v>521458.0</v>
+        <v>521458</v>
       </c>
       <c r="C48" s="1">
-        <v>185125.0</v>
+        <v>185125</v>
       </c>
       <c r="D48" s="1">
-        <v>35.5014210156906</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>35.501421015690603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="1">
-        <v>5129728.0</v>
+        <v>5129728</v>
       </c>
       <c r="C49" s="1">
-        <v>1814973.0</v>
+        <v>1814973</v>
       </c>
       <c r="D49" s="1">
-        <v>35.3814666196726</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>35.381466619672601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="1">
-        <v>6.728104E7</v>
+        <v>67281040</v>
       </c>
       <c r="C50" s="1">
-        <v>2.3798797E7</v>
+        <v>23798797</v>
       </c>
       <c r="D50" s="1">
-        <v>35.3722192760397</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>35.372219276039701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="1">
-        <v>6871547.0</v>
+        <v>6871547</v>
       </c>
       <c r="C51" s="1">
-        <v>2388554.0</v>
+        <v>2388554</v>
       </c>
       <c r="D51" s="1">
-        <v>34.7600620355212</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>34.760062035521202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="1">
-        <v>4986526.0</v>
+        <v>4986526</v>
       </c>
       <c r="C52" s="1">
-        <v>1668301.0</v>
+        <v>1668301</v>
       </c>
       <c r="D52" s="1">
-        <v>33.4561777076866</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>33.456177707686599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>4417.0</v>
+        <v>4417</v>
       </c>
       <c r="C53" s="1">
-        <v>1403.0</v>
+        <v>1403</v>
       </c>
       <c r="D53" s="1">
-        <v>31.7636404799637</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>31.763640479963701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="1">
-        <v>1.24137428E9</v>
+        <v>1241374280</v>
       </c>
       <c r="C54" s="1">
-        <v>3.87546291E8</v>
+        <v>387546291</v>
       </c>
       <c r="D54" s="1">
-        <v>31.2191332818656</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>31.219133281865599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>7.48655221E8</v>
+        <v>748655221</v>
       </c>
       <c r="C55" s="1">
-        <v>2.33221363E8</v>
+        <v>233221363</v>
       </c>
       <c r="D55" s="1">
         <v>31.1520385429864</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="1">
-        <v>4060135.0</v>
+        <v>4060135</v>
       </c>
       <c r="C56" s="1">
-        <v>1241764.0</v>
+        <v>1241764</v>
       </c>
       <c r="D56" s="1">
-        <v>30.5843032312964</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>30.584303231296399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="1">
-        <v>18024.0</v>
+        <v>18024</v>
       </c>
       <c r="C57" s="1">
-        <v>5490.0</v>
+        <v>5490</v>
       </c>
       <c r="D57" s="1">
-        <v>30.4593874833555</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>30.459387483355499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="1">
-        <v>2.3859912E7</v>
+        <v>23859912</v>
       </c>
       <c r="C58" s="1">
-        <v>7183912.0</v>
+        <v>7183912</v>
       </c>
       <c r="D58" s="1">
         <v>30.1087112140229</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="1">
-        <v>3347782.0</v>
+        <v>3347782</v>
       </c>
       <c r="C59" s="1">
-        <v>983958.0</v>
+        <v>983958</v>
       </c>
       <c r="D59" s="1">
-        <v>29.3913402963514</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>29.391340296351402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>3426260.0</v>
+        <v>3426260</v>
       </c>
       <c r="C60" s="1">
-        <v>987563.0</v>
+        <v>987563</v>
       </c>
       <c r="D60" s="1">
-        <v>28.8233525768622</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>28.823352576862199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="1">
-        <v>3.36997624E8</v>
+        <v>336997624</v>
       </c>
       <c r="C61" s="1">
-        <v>9.6952191E7</v>
+        <v>96952191</v>
       </c>
       <c r="D61" s="1">
         <v>28.7693989795014</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="1">
-        <v>64185.0</v>
+        <v>64185</v>
       </c>
       <c r="C62" s="1">
-        <v>18220.0</v>
+        <v>18220</v>
       </c>
       <c r="D62" s="1">
         <v>28.3866947106021</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="1">
-        <v>4.7486935E7</v>
+        <v>47486935</v>
       </c>
       <c r="C63" s="1">
-        <v>1.3462593E7</v>
+        <v>13462593</v>
       </c>
       <c r="D63" s="1">
-        <v>28.350098821918</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>28.350098821917999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="1">
-        <v>4.4491772E7</v>
+        <v>44491772</v>
       </c>
       <c r="C64" s="1">
-        <v>1.2513532E7</v>
+        <v>12513532</v>
       </c>
       <c r="D64" s="1">
         <v>28.1254970020074</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="1">
-        <v>5403021.0</v>
+        <v>5403021</v>
       </c>
       <c r="C65" s="1">
-        <v>1463464.0</v>
+        <v>1463464</v>
       </c>
       <c r="D65" s="1">
         <v>27.0860320550299</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>287800.0</v>
+        <v>287800</v>
       </c>
       <c r="C66" s="1">
-        <v>74346.0</v>
+        <v>74346</v>
       </c>
       <c r="D66" s="1">
-        <v>25.8325225851285</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>25.832522585128501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>304032.0</v>
+        <v>304032</v>
       </c>
       <c r="C67" s="1">
-        <v>76706.0</v>
+        <v>76706</v>
       </c>
       <c r="D67" s="1">
-        <v>25.2295810967266</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>25.229581096726601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="1">
-        <v>1.0467097E7</v>
+        <v>10467097</v>
       </c>
       <c r="C68" s="1">
-        <v>2604866.0</v>
+        <v>2604866</v>
       </c>
       <c r="D68" s="1">
         <v>24.8862315883764</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="1">
-        <v>15753.0</v>
+        <v>15753</v>
       </c>
       <c r="C69" s="1">
-        <v>3866.0</v>
+        <v>3866</v>
       </c>
       <c r="D69" s="1">
         <v>24.5413572018028</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="1">
-        <v>7494578.0</v>
+        <v>7494578</v>
       </c>
       <c r="C70" s="1">
-        <v>1837848.0</v>
+        <v>1837848</v>
       </c>
       <c r="D70" s="1">
         <v>24.5223680372664</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="1">
-        <v>1.9493184E7</v>
+        <v>19493184</v>
       </c>
       <c r="C71" s="1">
-        <v>4678644.0</v>
+        <v>4678644</v>
       </c>
       <c r="D71" s="1">
         <v>24.001435578713</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="1">
-        <v>5535992.0</v>
+        <v>5535992</v>
       </c>
       <c r="C72" s="1">
-        <v>1323455.0</v>
+        <v>1323455</v>
       </c>
       <c r="D72" s="1">
-        <v>23.9063748647035</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>23.906374864703501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="1">
-        <v>190338.0</v>
+        <v>190338</v>
       </c>
       <c r="C73" s="1">
-        <v>45406.0</v>
+        <v>45406</v>
       </c>
       <c r="D73" s="1">
         <v>23.8554571341508</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="1">
-        <v>31122.0</v>
+        <v>31122</v>
       </c>
       <c r="C74" s="1">
-        <v>7305.0</v>
+        <v>7305</v>
       </c>
       <c r="D74" s="1">
         <v>23.4721418931945</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="1">
-        <v>4351267.0</v>
+        <v>4351267</v>
       </c>
       <c r="C75" s="1">
-        <v>988280.0</v>
+        <v>988280</v>
       </c>
       <c r="D75" s="1">
-        <v>22.712465127973</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>22.712465127973001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="1">
-        <v>5153957.0</v>
+        <v>5153957</v>
       </c>
       <c r="C76" s="1">
-        <v>1127602.0</v>
+        <v>1127602</v>
       </c>
       <c r="D76" s="1">
-        <v>21.878374227802</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>21.878374227801999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="1">
-        <v>9709786.0</v>
+        <v>9709786</v>
       </c>
       <c r="C77" s="1">
-        <v>2120543.0</v>
+        <v>2120543</v>
       </c>
       <c r="D77" s="1">
-        <v>21.8392351798484</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>21.839235179848401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="1">
-        <v>526748.0</v>
+        <v>526748</v>
       </c>
       <c r="C78" s="1">
-        <v>115013.0</v>
+        <v>115013</v>
       </c>
       <c r="D78" s="1">
-        <v>21.8345394761821</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>21.834539476182101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>72412.0</v>
+        <v>72412</v>
       </c>
       <c r="C79" s="1">
-        <v>15760.0</v>
+        <v>15760</v>
       </c>
       <c r="D79" s="1">
-        <v>21.764348450533</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>21.764348450532999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="1">
-        <v>5592631.0</v>
+        <v>5592631</v>
       </c>
       <c r="C80" s="1">
-        <v>1216999.0</v>
+        <v>1216999</v>
       </c>
       <c r="D80" s="1">
-        <v>21.7607598284242</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>21.760759828424199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>4.527678E7</v>
+        <v>45276780</v>
       </c>
       <c r="C81" s="1">
-        <v>9715464.0</v>
+        <v>9715464</v>
       </c>
       <c r="D81" s="1">
         <v>21.4579393675963</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="1">
-        <v>56243.0</v>
+        <v>56243</v>
       </c>
       <c r="C82" s="1">
-        <v>11971.0</v>
+        <v>11971</v>
       </c>
       <c r="D82" s="1">
-        <v>21.2844265064096</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>21.284426506409599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="1">
-        <v>1298915.0</v>
+        <v>1298915</v>
       </c>
       <c r="C83" s="1">
-        <v>263177.0</v>
+        <v>263177</v>
       </c>
       <c r="D83" s="1">
-        <v>20.2612950039071</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>20.261295003907101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="1">
-        <v>8.4775404E7</v>
+        <v>84775404</v>
       </c>
       <c r="C84" s="1">
-        <v>1.6919638E7</v>
+        <v>16919638</v>
       </c>
       <c r="D84" s="1">
-        <v>19.9581921190254</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>19.958192119025401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="1">
-        <v>3061506.0</v>
+        <v>3061506</v>
       </c>
       <c r="C85" s="1">
-        <v>591912.0</v>
+        <v>591912</v>
       </c>
       <c r="D85" s="1">
         <v>19.3340140440685</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="1">
-        <v>113131.0</v>
+        <v>113131</v>
       </c>
       <c r="C86" s="1">
-        <v>21815.0</v>
+        <v>21815</v>
       </c>
       <c r="D86" s="1">
-        <v>19.2829551581794</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>19.282955158179401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="1">
-        <v>5.96315269E8</v>
+        <v>596315269</v>
       </c>
       <c r="C87" s="1">
-        <v>1.1491589E8</v>
+        <v>114915890</v>
       </c>
       <c r="D87" s="1">
         <v>19.2709957255848</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="1">
-        <v>6885868.0</v>
+        <v>6885868</v>
       </c>
       <c r="C88" s="1">
-        <v>1270081.0</v>
+        <v>1270081</v>
       </c>
       <c r="D88" s="1">
         <v>18.4447479969119</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="1">
-        <v>1.2461253E8</v>
+        <v>124612530</v>
       </c>
       <c r="C89" s="1">
-        <v>2.1786304E7</v>
+        <v>21786304</v>
       </c>
       <c r="D89" s="1">
-        <v>17.4832370388435</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>17.483237038843502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="1">
-        <v>400031.0</v>
+        <v>400031</v>
       </c>
       <c r="C90" s="1">
-        <v>68909.0</v>
+        <v>68909</v>
       </c>
       <c r="D90" s="1">
-        <v>17.2259149915881</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>17.225914991588098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B91" s="1">
-        <v>2688235.0</v>
+        <v>2688235</v>
       </c>
       <c r="C91" s="1">
-        <v>461980.0</v>
+        <v>461980</v>
       </c>
       <c r="D91" s="1">
-        <v>17.1852535213625</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>17.185253521362501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="1">
-        <v>1.932856E7</v>
+        <v>19328560</v>
       </c>
       <c r="C92" s="1">
-        <v>3279860.0</v>
+        <v>3279860</v>
       </c>
       <c r="D92" s="1">
-        <v>16.9689826867599</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>16.968982686759901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B93" s="1">
-        <v>3.8307726E7</v>
+        <v>38307726</v>
       </c>
       <c r="C93" s="1">
-        <v>6326748.0</v>
+        <v>6326748</v>
       </c>
       <c r="D93" s="1">
-        <v>16.5155927031534</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>16.515592703153398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="1">
-        <v>179652.0</v>
+        <v>179652</v>
       </c>
       <c r="C94" s="1">
-        <v>29550.0</v>
+        <v>29550</v>
       </c>
       <c r="D94" s="1">
-        <v>16.4484670362701</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>16.448467036270099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="1">
-        <v>2103330.0</v>
+        <v>2103330</v>
       </c>
       <c r="C95" s="1">
-        <v>343585.0</v>
+        <v>343585</v>
       </c>
       <c r="D95" s="1">
-        <v>16.3352873776345</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>16.335287377634501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="1">
-        <v>2.14326223E8</v>
+        <v>214326223</v>
       </c>
       <c r="C96" s="1">
-        <v>3.4746462E7</v>
+        <v>34746462</v>
       </c>
       <c r="D96" s="1">
         <v>16.2119508819973</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="1">
-        <v>2790974.0</v>
+        <v>2790974</v>
       </c>
       <c r="C97" s="1">
-        <v>444482.0</v>
+        <v>444482</v>
       </c>
       <c r="D97" s="1">
         <v>15.9256947574574</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="1">
-        <v>124610.0</v>
+        <v>124610</v>
       </c>
       <c r="C98" s="1">
-        <v>19574.0</v>
+        <v>19574</v>
       </c>
       <c r="D98" s="1">
-        <v>15.7082096139956</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>15.708209613995599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="1">
-        <v>1.1148278E7</v>
+        <v>11148278</v>
       </c>
       <c r="C99" s="1">
-        <v>1746997.0</v>
+        <v>1746997</v>
       </c>
       <c r="D99" s="1">
-        <v>15.6705546811803</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>15.670554681180301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="1">
-        <v>4250114.0</v>
+        <v>4250114</v>
       </c>
       <c r="C100" s="1">
-        <v>660667.0</v>
+        <v>660667</v>
       </c>
       <c r="D100" s="1">
-        <v>15.5446889189325</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>15.544688918932501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="1">
-        <v>1782115.0</v>
+        <v>1782115</v>
       </c>
       <c r="C101" s="1">
-        <v>272120.0</v>
+        <v>272120</v>
       </c>
       <c r="D101" s="1">
-        <v>15.2694971985534</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>15.269497198553401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="1">
-        <v>106017.0</v>
+        <v>106017</v>
       </c>
       <c r="C102" s="1">
-        <v>16182.0</v>
+        <v>16182</v>
       </c>
       <c r="D102" s="1">
-        <v>15.2635898016355</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>15.263589801635501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B103" s="1">
-        <v>4.3395667E8</v>
+        <v>433956670</v>
       </c>
       <c r="C103" s="1">
-        <v>6.4120152E7</v>
+        <v>64120152</v>
       </c>
       <c r="D103" s="1">
-        <v>14.7757037586264</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>14.775703758626401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="1">
-        <v>3.3573874E7</v>
+        <v>33573874</v>
       </c>
       <c r="C104" s="1">
-        <v>4867192.0</v>
+        <v>4867192</v>
       </c>
       <c r="D104" s="1">
-        <v>14.4969627276256</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>14.496962727625601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B105" s="1">
-        <v>1.45102755E8</v>
+        <v>145102755</v>
       </c>
       <c r="C105" s="1">
-        <v>2.1000908E7</v>
+        <v>21000908</v>
       </c>
       <c r="D105" s="1">
-        <v>14.4731283703055</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>14.473128370305499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="1">
-        <v>45114.0</v>
+        <v>45114</v>
       </c>
       <c r="C106" s="1">
-        <v>6380.0</v>
+        <v>6380</v>
       </c>
       <c r="D106" s="1">
-        <v>14.1419515006428</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>14.141951500642801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="1">
-        <v>47606.0</v>
+        <v>47606</v>
       </c>
       <c r="C107" s="1">
-        <v>6547.0</v>
+        <v>6547</v>
       </c>
       <c r="D107" s="1">
-        <v>13.7524681762803</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>13.752468176280299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="1">
-        <v>5133392.0</v>
+        <v>5133392</v>
       </c>
       <c r="C108" s="1">
-        <v>702804.0</v>
+        <v>702804</v>
       </c>
       <c r="D108" s="1">
         <v>13.6908305463521</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="1">
-        <v>612984.0</v>
+        <v>612984</v>
       </c>
       <c r="C109" s="1">
-        <v>81131.0</v>
+        <v>81131</v>
       </c>
       <c r="D109" s="1">
-        <v>13.235418869008</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>13.235418869008001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="1">
-        <v>2588423.0</v>
+        <v>2588423</v>
       </c>
       <c r="C110" s="1">
-        <v>326344.0</v>
+        <v>326344</v>
       </c>
       <c r="D110" s="1">
-        <v>12.607831100249</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>12.607831100248999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="1">
-        <v>4.3531422E7</v>
+        <v>43531422</v>
       </c>
       <c r="C111" s="1">
-        <v>5480863.0</v>
+        <v>5480863</v>
       </c>
       <c r="D111" s="1">
-        <v>12.5905903096848</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>12.590590309684799</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B112" s="1">
-        <v>3.3715472E7</v>
+        <v>33715472</v>
       </c>
       <c r="C112" s="1">
-        <v>4150544.0</v>
+        <v>4150544</v>
       </c>
       <c r="D112" s="1">
         <v>12.3105024304568</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B113" s="1">
-        <v>5.1516562E7</v>
+        <v>51516562</v>
       </c>
       <c r="C113" s="1">
-        <v>6308558.0</v>
+        <v>6308558</v>
       </c>
       <c r="D113" s="1">
-        <v>12.2456890659745</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>12.245689065974499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B114" s="1">
-        <v>3270943.0</v>
+        <v>3270943</v>
       </c>
       <c r="C114" s="1">
-        <v>399410.0</v>
+        <v>399410</v>
       </c>
       <c r="D114" s="1">
-        <v>12.2108517329711</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>12.210851732971101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B115" s="1">
-        <v>1525663.0</v>
+        <v>1525663</v>
       </c>
       <c r="C115" s="1">
-        <v>184261.0</v>
+        <v>184261</v>
       </c>
       <c r="D115" s="1">
         <v>12.077437809005</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="1">
-        <v>9.7468028E7</v>
+        <v>97468028</v>
       </c>
       <c r="C116" s="1">
-        <v>1.1492598E7</v>
+        <v>11492598</v>
       </c>
       <c r="D116" s="1">
-        <v>11.7911465285826</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>11.791146528582599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="1">
-        <v>2854710.0</v>
+        <v>2854710</v>
       </c>
       <c r="C117" s="1">
-        <v>332638.0</v>
+        <v>332638</v>
       </c>
       <c r="D117" s="1">
-        <v>11.6522518924864</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>11.652251892486399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B118" s="1">
-        <v>3.8155012E7</v>
+        <v>38155012</v>
       </c>
       <c r="C118" s="1">
-        <v>4326086.0</v>
+        <v>4326086</v>
       </c>
       <c r="D118" s="1">
         <v>11.3381854001251</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B119" s="1">
-        <v>9365144.0</v>
+        <v>9365144</v>
       </c>
       <c r="C119" s="1">
-        <v>1032844.0</v>
+        <v>1032844</v>
       </c>
       <c r="D119" s="1">
         <v>11.0285971043264</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B120" s="1">
-        <v>6703799.0</v>
+        <v>6703799</v>
       </c>
       <c r="C120" s="1">
-        <v>717260.0</v>
+        <v>717260</v>
       </c>
       <c r="D120" s="1">
-        <v>10.6993064678699</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>10.699306467869899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B121" s="1">
-        <v>587925.0</v>
+        <v>587925</v>
       </c>
       <c r="C121" s="1">
-        <v>62397.0</v>
+        <v>62397</v>
       </c>
       <c r="D121" s="1">
         <v>10.6130884041331</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="1">
-        <v>9578168.0</v>
+        <v>9578168</v>
       </c>
       <c r="C122" s="1">
-        <v>994037.0</v>
+        <v>994037</v>
       </c>
       <c r="D122" s="1">
-        <v>10.3781537346181</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>10.378153734618101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B123" s="1">
-        <v>1.1256372E7</v>
+        <v>11256372</v>
       </c>
       <c r="C123" s="1">
-        <v>1111258.0</v>
+        <v>1111258</v>
       </c>
       <c r="D123" s="1">
-        <v>9.8722572423868</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>9.8722572423867998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B124" s="1">
-        <v>93220.0</v>
+        <v>93220</v>
       </c>
       <c r="C124" s="1">
-        <v>9106.0</v>
+        <v>9106</v>
       </c>
       <c r="D124" s="1">
         <v>9.76829006650933</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B125" s="1">
-        <v>1.2262946E7</v>
+        <v>12262946</v>
       </c>
       <c r="C125" s="1">
-        <v>1145930.0</v>
+        <v>1145930</v>
       </c>
       <c r="D125" s="1">
-        <v>9.34465502824525</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>9.3446550282452492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B126" s="1">
-        <v>1.2079472E7</v>
+        <v>12079472</v>
       </c>
       <c r="C126" s="1">
-        <v>1108948.0</v>
+        <v>1108948</v>
       </c>
       <c r="D126" s="1">
-        <v>9.18043437660189</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>9.1804343766018892</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="1">
-        <v>407906.0</v>
+        <v>407906</v>
       </c>
       <c r="C127" s="1">
-        <v>37334.0</v>
+        <v>37334</v>
       </c>
       <c r="D127" s="1">
-        <v>9.152598883076</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>9.1525988830759992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B128" s="1">
-        <v>104332.0</v>
+        <v>104332</v>
       </c>
       <c r="C128" s="1">
-        <v>9450.0</v>
+        <v>9450</v>
       </c>
       <c r="D128" s="1">
-        <v>9.0576237396005</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>9.0576237396004995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B129" s="1">
-        <v>804567.0</v>
+        <v>804567</v>
       </c>
       <c r="C129" s="1">
-        <v>71403.0</v>
+        <v>71403</v>
       </c>
       <c r="D129" s="1">
-        <v>8.87471149077702</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>8.8747114907770204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B130" s="1">
-        <v>4520471.0</v>
+        <v>4520471</v>
       </c>
       <c r="C130" s="1">
-        <v>398424.0</v>
+        <v>398424</v>
       </c>
       <c r="D130" s="1">
-        <v>8.81377183926188</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>8.8137718392618805</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B131" s="1">
-        <v>8.7923432E7</v>
+        <v>87923432</v>
       </c>
       <c r="C131" s="1">
-        <v>7554333.0</v>
+        <v>7554333</v>
       </c>
       <c r="D131" s="1">
-        <v>8.59194509149733</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>8.5919450914973297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="1">
-        <v>777486.0</v>
+        <v>777486</v>
       </c>
       <c r="C132" s="1">
-        <v>62200.0</v>
+        <v>62200</v>
       </c>
       <c r="D132" s="1">
-        <v>8.00014405404084</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>8.0001440540408399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="1">
-        <v>1.0312992E7</v>
+        <v>10312992</v>
       </c>
       <c r="C133" s="1">
-        <v>822599.0</v>
+        <v>822599</v>
       </c>
       <c r="D133" s="1">
-        <v>7.97633703196899</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>7.9763370319689901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="1">
-        <v>7.909295152E9</v>
+        <v>7909295152</v>
       </c>
       <c r="C134" s="1">
-        <v>6.24599147E8</v>
+        <v>624599147</v>
       </c>
       <c r="D134" s="1">
-        <v>7.89702666288865</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>7.8970266628886501</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B135" s="1">
-        <v>1.9196465E7</v>
+        <v>19196465</v>
       </c>
       <c r="C135" s="1">
-        <v>1484126.0</v>
+        <v>1484126</v>
       </c>
       <c r="D135" s="1">
-        <v>7.73124635186738</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>7.7312463518673802</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="1">
-        <v>6735277.0</v>
+        <v>6735277</v>
       </c>
       <c r="C136" s="1">
-        <v>507012.0</v>
+        <v>507012</v>
       </c>
       <c r="D136" s="1">
-        <v>7.5277082145248</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>7.5277082145248002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B137" s="1">
-        <v>924610.0</v>
+        <v>924610</v>
       </c>
       <c r="C137" s="1">
-        <v>68248.0</v>
+        <v>68248</v>
       </c>
       <c r="D137" s="1">
-        <v>7.38127426698824</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>7.3812742669882399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B138" s="1">
-        <v>218764.0</v>
+        <v>218764</v>
       </c>
       <c r="C138" s="1">
-        <v>15942.0</v>
+        <v>15942</v>
       </c>
       <c r="D138" s="1">
-        <v>7.2873050410488</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>7.2873050410487998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B139" s="1">
-        <v>5.9392255E7</v>
+        <v>59392255</v>
       </c>
       <c r="C139" s="1">
-        <v>4023358.0</v>
+        <v>4023358</v>
       </c>
       <c r="D139" s="1">
-        <v>6.77421323706264</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>6.7742132370626402</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B140" s="1">
-        <v>2530151.0</v>
+        <v>2530151</v>
       </c>
       <c r="C140" s="1">
-        <v>169253.0</v>
+        <v>169253</v>
       </c>
       <c r="D140" s="1">
-        <v>6.68944264591322</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>6.6894426459132204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="1">
-        <v>7.1601103E7</v>
+        <v>71601103</v>
       </c>
       <c r="C141" s="1">
-        <v>4713909.0</v>
+        <v>4713909</v>
       </c>
       <c r="D141" s="1">
-        <v>6.58357036762408</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>6.5835703676240804</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B142" s="1">
-        <v>11627.0</v>
+        <v>11627</v>
       </c>
       <c r="C142" s="1">
-        <v>761.0</v>
+        <v>761</v>
       </c>
       <c r="D142" s="1">
-        <v>6.54511051862045</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>6.5451105186204499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="1">
-        <v>1.7608483E7</v>
+        <v>17608483</v>
       </c>
       <c r="C143" s="1">
-        <v>1133421.0</v>
+        <v>1133421</v>
       </c>
       <c r="D143" s="1">
-        <v>6.43678958601942</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>6.4367895860194198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B144" s="1">
-        <v>1192271.0</v>
+        <v>1192271</v>
       </c>
       <c r="C144" s="1">
-        <v>73436.0</v>
+        <v>73436</v>
       </c>
       <c r="D144" s="1">
-        <v>6.15933793575453</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>6.1593379357545297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B145" s="1">
-        <v>1.1117874E7</v>
+        <v>11117874</v>
       </c>
       <c r="C145" s="1">
-        <v>647205.0</v>
+        <v>647205</v>
       </c>
       <c r="D145" s="1">
-        <v>5.82130180644249</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>5.8213018064424897</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B146" s="1">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="C146" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D146" s="1">
-        <v>5.67514677103718</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>5.6751467710371797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="1">
-        <v>1.7797737E7</v>
+        <v>17797737</v>
       </c>
       <c r="C147" s="1">
-        <v>1006922.0</v>
+        <v>1006922</v>
       </c>
       <c r="D147" s="1">
-        <v>5.65758444458416</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>5.6575844445841597</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="1">
-        <v>4.3533592E7</v>
+        <v>43533592</v>
       </c>
       <c r="C148" s="1">
-        <v>2460868.0</v>
+        <v>2460868</v>
       </c>
       <c r="D148" s="1">
-        <v>5.65280255302617</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>5.6528025530261701</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B149" s="1">
-        <v>1.26705138E8</v>
+        <v>126705138</v>
       </c>
       <c r="C149" s="1">
-        <v>7102947.0</v>
+        <v>7102947</v>
       </c>
       <c r="D149" s="1">
-        <v>5.60588711090784</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>5.6058871109078403</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B150" s="1">
-        <v>2.50142794E9</v>
+        <v>2501427940</v>
       </c>
       <c r="C150" s="1">
-        <v>1.38535121E8</v>
+        <v>138535121</v>
       </c>
       <c r="D150" s="1">
-        <v>5.53824152935622</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>5.5382415293562204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B151" s="1">
-        <v>2827694.0</v>
+        <v>2827694</v>
       </c>
       <c r="C151" s="1">
-        <v>151931.0</v>
+        <v>151931</v>
       </c>
       <c r="D151" s="1">
-        <v>5.37296468429752</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>5.3729646842975196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="1">
-        <v>1.0278346E7</v>
+        <v>10278346</v>
       </c>
       <c r="C152" s="1">
-        <v>456664.0</v>
+        <v>456664</v>
       </c>
       <c r="D152" s="1">
-        <v>4.4429716610046</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>4.4429716610046004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="1">
-        <v>4.693235454E9</v>
+        <v>4693235454</v>
       </c>
       <c r="C153" s="1">
-        <v>1.87459082E8</v>
+        <v>187459082</v>
       </c>
       <c r="D153" s="1">
-        <v>3.99423987646369</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>3.9942398764636899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B154" s="1">
-        <v>319136.0</v>
+        <v>319136</v>
       </c>
       <c r="C154" s="1">
-        <v>11976.0</v>
+        <v>11976</v>
       </c>
       <c r="D154" s="1">
-        <v>3.75263210668805</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>3.7526321066880501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B155" s="1">
-        <v>1.13880328E8</v>
+        <v>113880328</v>
       </c>
       <c r="C155" s="1">
-        <v>3982965.0</v>
+        <v>3982965</v>
       </c>
       <c r="D155" s="1">
-        <v>3.49750046382023</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>3.4975004638202298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="1">
-        <v>3.7076584E7</v>
+        <v>37076584</v>
       </c>
       <c r="C156" s="1">
-        <v>1265220.0</v>
+        <v>1265220</v>
       </c>
       <c r="D156" s="1">
-        <v>3.41245029477365</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>3.4124502947736501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B157" s="1">
-        <v>3.0034989E7</v>
+        <v>30034989</v>
       </c>
       <c r="C157" s="1">
-        <v>1000151.0</v>
+        <v>1000151</v>
       </c>
       <c r="D157" s="1">
-        <v>3.32995294254977</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>3.3299529425497698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="1">
-        <v>6314167.0</v>
+        <v>6314167</v>
       </c>
       <c r="C158" s="1">
-        <v>201785.0</v>
+        <v>201785</v>
       </c>
       <c r="D158" s="1">
-        <v>3.19575012824336</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>3.1957501282433598</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="1">
-        <v>1.407563842E9</v>
+        <v>1407563842</v>
       </c>
       <c r="C159" s="1">
-        <v>4.4630888E7</v>
+        <v>44630888</v>
       </c>
       <c r="D159" s="1">
-        <v>3.17078960600353</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>3.1707896060035301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="1">
-        <v>6527743.0</v>
+        <v>6527743</v>
       </c>
       <c r="C160" s="1">
-        <v>206250.0</v>
+        <v>206250</v>
       </c>
       <c r="D160" s="1">
-        <v>3.15959130131195</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>3.1595913013119499</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B161" s="1">
-        <v>2.1773441E7</v>
+        <v>21773441</v>
       </c>
       <c r="C161" s="1">
-        <v>670921.0</v>
+        <v>670921</v>
       </c>
       <c r="D161" s="1">
-        <v>3.08137331164146</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>3.0813733116414599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B162" s="1">
-        <v>707851.0</v>
+        <v>707851</v>
       </c>
       <c r="C162" s="1">
-        <v>21544.0</v>
+        <v>21544</v>
       </c>
       <c r="D162" s="1">
         <v>3.04357838019583</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B163" s="1">
-        <v>7425058.0</v>
+        <v>7425058</v>
       </c>
       <c r="C163" s="1">
-        <v>216101.0</v>
+        <v>216101</v>
       </c>
       <c r="D163" s="1">
-        <v>2.91042844379128</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>2.9104284437912802</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B164" s="1">
-        <v>3.36319666E9</v>
+        <v>3363196660</v>
       </c>
       <c r="C164" s="1">
-        <v>9.6238647E7</v>
+        <v>96238647</v>
       </c>
       <c r="D164" s="1">
         <v>2.8615230308893</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="1">
-        <v>223107.0</v>
+        <v>223107</v>
       </c>
       <c r="C165" s="1">
-        <v>6252.0</v>
+        <v>6252</v>
       </c>
       <c r="D165" s="1">
         <v>2.80224287001304</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="1">
-        <v>128874.0</v>
+        <v>128874</v>
       </c>
       <c r="C166" s="1">
-        <v>3430.0</v>
+        <v>3430</v>
       </c>
       <c r="D166" s="1">
         <v>2.66151434734702</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B167" s="1">
-        <v>2.73753191E8</v>
+        <v>273753191</v>
       </c>
       <c r="C167" s="1">
-        <v>6456868.0</v>
+        <v>6456868</v>
       </c>
       <c r="D167" s="1">
-        <v>2.35864574816956</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>2.3586457481695602</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B168" s="1">
-        <v>3.5950396E7</v>
+        <v>35950396</v>
       </c>
       <c r="C168" s="1">
-        <v>818837.0</v>
+        <v>818837</v>
       </c>
       <c r="D168" s="1">
-        <v>2.2776856199303</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>2.2776856199302999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B169" s="1">
-        <v>2341179.0</v>
+        <v>2341179</v>
       </c>
       <c r="C169" s="1">
-        <v>48810.0</v>
+        <v>48810</v>
       </c>
       <c r="D169" s="1">
-        <v>2.08484699375827</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>2.0848469937582701</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="1">
-        <v>2.8199866E7</v>
+        <v>28199866</v>
       </c>
       <c r="C170" s="1">
-        <v>545323.0</v>
+        <v>545323</v>
       </c>
       <c r="D170" s="1">
         <v>1.93377869242357</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B171" s="1">
-        <v>1320942.0</v>
+        <v>1320942</v>
       </c>
       <c r="C171" s="1">
-        <v>23276.0</v>
+        <v>23276</v>
       </c>
       <c r="D171" s="1">
         <v>1.76207585192991</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="1">
-        <v>1.9473125E7</v>
+        <v>19473125</v>
       </c>
       <c r="C172" s="1">
-        <v>333624.0</v>
+        <v>333624</v>
       </c>
       <c r="D172" s="1">
         <v>1.7132535224829</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B173" s="1">
-        <v>1.5993524E7</v>
+        <v>15993524</v>
       </c>
       <c r="C173" s="1">
-        <v>257893.0</v>
+        <v>257893</v>
       </c>
       <c r="D173" s="1">
         <v>1.61248390285968</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="1">
-        <v>2281454.0</v>
+        <v>2281454</v>
       </c>
       <c r="C174" s="1">
-        <v>34490.0</v>
+        <v>34490</v>
       </c>
       <c r="D174" s="1">
         <v>1.51175522276583</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B175" s="1">
-        <v>1105557.0</v>
+        <v>1105557</v>
       </c>
       <c r="C175" s="1">
-        <v>15690.0</v>
+        <v>15690</v>
       </c>
       <c r="D175" s="1">
-        <v>1.41919412567601</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>1.4191941256760101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B176" s="1">
-        <v>4614974.0</v>
+        <v>4614974</v>
       </c>
       <c r="C176" s="1">
-        <v>63110.0</v>
+        <v>63110</v>
       </c>
       <c r="D176" s="1">
-        <v>1.36750499569445</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>1.3675049956944501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B177" s="1">
-        <v>1.69356251E8</v>
+        <v>169356251</v>
       </c>
       <c r="C177" s="1">
-        <v>2032443.0</v>
+        <v>2032443</v>
       </c>
       <c r="D177" s="1">
         <v>1.20009919208709</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B178" s="1">
-        <v>5.3798084E7</v>
+        <v>53798084</v>
       </c>
       <c r="C178" s="1">
-        <v>628577.0</v>
+        <v>628577</v>
       </c>
       <c r="D178" s="1">
-        <v>1.1684003467484</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>1.1684003467484001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B179" s="1">
-        <v>1634466.0</v>
+        <v>1634466</v>
       </c>
       <c r="C179" s="1">
-        <v>17081.0</v>
+        <v>17081</v>
       </c>
       <c r="D179" s="1">
-        <v>1.045050799466</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>1.0450507994660001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B180" s="1">
-        <v>821626.0</v>
+        <v>821626</v>
       </c>
       <c r="C180" s="1">
-        <v>8481.0</v>
+        <v>8481</v>
       </c>
       <c r="D180" s="1">
-        <v>1.0322214730303</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>1.0322214730303001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B181" s="1">
-        <v>1.3461888E7</v>
+        <v>13461888</v>
       </c>
       <c r="C181" s="1">
-        <v>132528.0</v>
+        <v>132528</v>
       </c>
       <c r="D181" s="1">
-        <v>0.984468151866959</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>0.98446815186695902</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="1">
-        <v>1.392394303E9</v>
+        <v>1392394303</v>
       </c>
       <c r="C182" s="1">
-        <v>1.2368407E7</v>
+        <v>12368407</v>
       </c>
       <c r="D182" s="1">
-        <v>0.888283367243854</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>0.88828336724385404</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B183" s="1">
-        <v>1.6589023E7</v>
+        <v>16589023</v>
       </c>
       <c r="C183" s="1">
-        <v>137965.0</v>
+        <v>137965</v>
       </c>
       <c r="D183" s="1">
-        <v>0.831664408446477</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>0.83166440844647704</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B184" s="1">
-        <v>3.2077072E7</v>
+        <v>32077072</v>
       </c>
       <c r="C184" s="1">
-        <v>230370.0</v>
+        <v>230370</v>
       </c>
       <c r="D184" s="1">
-        <v>0.718176521847131</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>0.71817652184713099</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B185" s="1">
-        <v>3.4081449E7</v>
+        <v>34081449</v>
       </c>
       <c r="C185" s="1">
-        <v>244382.0</v>
+        <v>244382</v>
       </c>
       <c r="D185" s="1">
-        <v>0.71705284596321</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>0.71705284596320995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B186" s="1">
-        <v>2.31402116E8</v>
+        <v>231402116</v>
       </c>
       <c r="C186" s="1">
-        <v>1572778.0</v>
+        <v>1572778</v>
       </c>
       <c r="D186" s="1">
-        <v>0.679673127967421</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>0.67967312796742096</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B187" s="1">
-        <v>5.3005614E7</v>
+        <v>53005614</v>
       </c>
       <c r="C187" s="1">
-        <v>338578.0</v>
+        <v>338578</v>
       </c>
       <c r="D187" s="1">
-        <v>0.63875875487453</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>0.63875875487453004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B188" s="1">
-        <v>4.4177969E7</v>
+        <v>44177969</v>
       </c>
       <c r="C188" s="1">
-        <v>270740.0</v>
+        <v>270740</v>
       </c>
       <c r="D188" s="1">
-        <v>0.612839399656421</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>0.61283939965642098</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="1">
-        <v>1.687672E7</v>
+        <v>16876720</v>
       </c>
       <c r="C189" s="1">
-        <v>88555.0</v>
+        <v>88555</v>
       </c>
       <c r="D189" s="1">
-        <v>0.5247168881157</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>0.52471688811570005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B190" s="1">
-        <v>3.2833031E7</v>
+        <v>32833031</v>
       </c>
       <c r="C190" s="1">
-        <v>170321.0</v>
+        <v>170321</v>
       </c>
       <c r="D190" s="1">
-        <v>0.518748939139977</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>0.51874893913997699</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B191" s="1">
-        <v>4.0099462E7</v>
+        <v>40099462</v>
       </c>
       <c r="C191" s="1">
-        <v>201212.0</v>
+        <v>201212</v>
       </c>
       <c r="D191" s="1">
-        <v>0.501782293238747</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>0.50178229323874701</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B192" s="1">
-        <v>2639916.0</v>
+        <v>2639916</v>
       </c>
       <c r="C192" s="1">
-        <v>12508.0</v>
+        <v>12508</v>
       </c>
       <c r="D192" s="1">
         <v>0.473802954336425</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B193" s="1">
-        <v>1.09262178E8</v>
+        <v>109262178</v>
       </c>
       <c r="C193" s="1">
-        <v>515645.0</v>
+        <v>515645</v>
       </c>
       <c r="D193" s="1">
-        <v>0.471933663998533</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>0.47193366399853298</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B194" s="1">
-        <v>9949437.0</v>
+        <v>9949437</v>
       </c>
       <c r="C194" s="1">
-        <v>45199.0</v>
+        <v>45199</v>
       </c>
       <c r="D194" s="1">
-        <v>0.454287011415821</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>0.45428701141582101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B195" s="1">
-        <v>8644829.0</v>
+        <v>8644829</v>
       </c>
       <c r="C195" s="1">
-        <v>39252.0</v>
+        <v>39252</v>
       </c>
       <c r="D195" s="1">
-        <v>0.454051780549968</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0.45405178054996798</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B196" s="1">
-        <v>2.7198628E7</v>
+        <v>27198628</v>
       </c>
       <c r="C196" s="1">
-        <v>121652.0</v>
+        <v>121652</v>
       </c>
       <c r="D196" s="1">
         <v>0.447272560954177</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B197" s="1">
-        <v>1.9889742E7</v>
+        <v>19889742</v>
       </c>
       <c r="C197" s="1">
-        <v>88057.0</v>
+        <v>88057</v>
       </c>
       <c r="D197" s="1">
-        <v>0.442725702525452</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>0.44272570252545201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B198" s="1">
-        <v>2060721.0</v>
+        <v>2060721</v>
       </c>
       <c r="C198" s="1">
-        <v>8831.0</v>
+        <v>8831</v>
       </c>
       <c r="D198" s="1">
-        <v>0.428539331622281</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0.42853933162228097</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B199" s="1">
-        <v>5835806.0</v>
+        <v>5835806</v>
       </c>
       <c r="C199" s="1">
-        <v>24837.0</v>
+        <v>24837</v>
       </c>
       <c r="D199" s="1">
-        <v>0.425596738479654</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0.42559673847965401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B200" s="1">
-        <v>1.20283026E8</v>
+        <v>120283026</v>
       </c>
       <c r="C200" s="1">
-        <v>493783.0</v>
+        <v>493783</v>
       </c>
       <c r="D200" s="1">
-        <v>0.410517607031269</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0.41051760703126899</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B201" s="1">
-        <v>1.2551213E7</v>
+        <v>12551213</v>
       </c>
       <c r="C201" s="1">
-        <v>50289.0</v>
+        <v>50289</v>
       </c>
       <c r="D201" s="1">
-        <v>0.400670437192006</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>0.40067043719200601</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B202" s="1">
-        <v>4.5853778E7</v>
+        <v>45853778</v>
       </c>
       <c r="C202" s="1">
-        <v>169396.0</v>
+        <v>169396</v>
       </c>
       <c r="D202" s="1">
         <v>0.369426484334616</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B203" s="1">
-        <v>7.0192697E8</v>
+        <v>701926970</v>
       </c>
       <c r="C203" s="1">
-        <v>2247390.0</v>
+        <v>2247390</v>
       </c>
       <c r="D203" s="1">
-        <v>0.320174333805694</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>0.32017433380569399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B204" s="1">
-        <v>2.7478249E7</v>
+        <v>27478249</v>
       </c>
       <c r="C204" s="1">
-        <v>87598.0</v>
+        <v>87598</v>
       </c>
       <c r="D204" s="1">
-        <v>0.318790327578733</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>0.31879032757873299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="1">
-        <v>3.4503774E7</v>
+        <v>34503774</v>
       </c>
       <c r="C205" s="1">
-        <v>103131.0</v>
+        <v>103131</v>
       </c>
       <c r="D205" s="1">
-        <v>0.298897737969185</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>0.29889773796918501</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B206" s="1">
-        <v>1.1447569E7</v>
+        <v>11447569</v>
       </c>
       <c r="C206" s="1">
-        <v>33764.0</v>
+        <v>33764</v>
       </c>
       <c r="D206" s="1">
-        <v>0.2949447170836</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>0.29494471708359998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="1">
-        <v>3620312.0</v>
+        <v>3620312</v>
       </c>
       <c r="C207" s="1">
-        <v>10182.0</v>
+        <v>10182</v>
       </c>
       <c r="D207" s="1">
-        <v>0.281246478204088</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>0.28124647820408799</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B208" s="1">
-        <v>1.3531906E7</v>
+        <v>13531906</v>
       </c>
       <c r="C208" s="1">
-        <v>37950.0</v>
+        <v>37950</v>
       </c>
       <c r="D208" s="1">
-        <v>0.28044829752734</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>0.28044829752734002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B209" s="1">
-        <v>5457154.0</v>
+        <v>5457154</v>
       </c>
       <c r="C209" s="1">
-        <v>14957.0</v>
+        <v>14957</v>
       </c>
       <c r="D209" s="1">
-        <v>0.27408059219146</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>0.27408059219146003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B210" s="1">
-        <v>2.1324367E7</v>
+        <v>21324367</v>
       </c>
       <c r="C210" s="1">
-        <v>57334.0</v>
+        <v>57334</v>
       </c>
       <c r="D210" s="1">
-        <v>0.268866128593641</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>0.26886612859364101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B211" s="1">
-        <v>2.8915653E7</v>
+        <v>28915653</v>
       </c>
       <c r="C211" s="1">
-        <v>66687.0</v>
+        <v>66687</v>
       </c>
       <c r="D211" s="1">
         <v>0.230625951971411</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B212" s="1">
-        <v>6850540.0</v>
+        <v>6850540</v>
       </c>
       <c r="C212" s="1">
-        <v>15120.0</v>
+        <v>15120</v>
       </c>
       <c r="D212" s="1">
         <v>0.220712527771533</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B213" s="1">
-        <v>1.2996895E7</v>
+        <v>12996895</v>
       </c>
       <c r="C213" s="1">
-        <v>27782.0</v>
+        <v>27782</v>
       </c>
       <c r="D213" s="1">
-        <v>0.213758747762446</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>0.21375874776244599</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B214" s="1">
-        <v>9750064.0</v>
+        <v>9750064</v>
       </c>
       <c r="C214" s="1">
-        <v>17786.0</v>
+        <v>17786</v>
       </c>
       <c r="D214" s="1">
-        <v>0.182419315401416</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>0.18241931540141601</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B215" s="1">
-        <v>11204.0</v>
+        <v>11204</v>
       </c>
       <c r="C215" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D215" s="1">
         <v>0.17850767583006</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B216" s="1">
-        <v>1.0748272E7</v>
+        <v>10748272</v>
       </c>
       <c r="C216" s="1">
-        <v>17823.0</v>
+        <v>17823</v>
       </c>
       <c r="D216" s="1">
-        <v>0.165822003760232</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>0.16582200376023201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="1">
-        <v>1.7065581E7</v>
+        <v>17065581</v>
       </c>
       <c r="C217" s="1">
-        <v>27223.0</v>
+        <v>27223</v>
       </c>
       <c r="D217" s="1">
         <v>0.159519913210104</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B218" s="1">
-        <v>5193416.0</v>
+        <v>5193416</v>
       </c>
       <c r="C218" s="1">
-        <v>7985.0</v>
+        <v>7985</v>
       </c>
       <c r="D218" s="1">
-        <v>0.153752366457838</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>0.15375236645783799</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B219" s="1">
-        <v>2.1904983E7</v>
+        <v>21904983</v>
       </c>
       <c r="C219" s="1">
-        <v>32709.0</v>
+        <v>32709</v>
       </c>
       <c r="D219" s="1">
-        <v>0.14932218847191</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>0.14932218847191001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="1">
-        <v>4.5657202E7</v>
+        <v>45657202</v>
       </c>
       <c r="C220" s="1">
-        <v>63375.0</v>
+        <v>63375</v>
       </c>
       <c r="D220" s="1">
         <v>0.138806140595299</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B221" s="1">
-        <v>2.13401323E8</v>
+        <v>213401323</v>
       </c>
       <c r="C221" s="1">
-        <v>265937.0</v>
+        <v>265937</v>
       </c>
       <c r="D221" s="1">
         <v>0.124618252718142</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B222" s="1">
-        <v>686607.0</v>
+        <v>686607</v>
       </c>
       <c r="C222" s="1">
-        <v>793.0</v>
+        <v>793</v>
       </c>
       <c r="D222" s="1">
         <v>0.115495472664857</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B223" s="1">
-        <v>2.2100683E7</v>
+        <v>22100683</v>
       </c>
       <c r="C223" s="1">
-        <v>21631.0</v>
+        <v>21631</v>
       </c>
       <c r="D223" s="1">
-        <v>0.097874803235719</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>9.7874803235718996E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="1">
-        <v>9.5894118E7</v>
+        <v>95894118</v>
       </c>
       <c r="C224" s="1">
-        <v>92972.0</v>
+        <v>92972</v>
       </c>
       <c r="D224" s="1">
-        <v>0.0969527661748763</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>9.6952766174876304E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="1">
-        <v>8420641.0</v>
+        <v>8420641</v>
       </c>
       <c r="C225" s="1">
-        <v>7752.0</v>
+        <v>7752</v>
       </c>
       <c r="D225" s="1">
-        <v>0.0920594999834335</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>9.2059499983433504E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B226" s="1">
-        <v>1.425893464E9</v>
+        <v>1425893464</v>
       </c>
       <c r="C226" s="1">
-        <v>1013390.0</v>
+        <v>1013390</v>
       </c>
       <c r="D226" s="1">
-        <v>0.071070527047454</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>7.1070527047453994E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="1">
-        <v>6.3588334E7</v>
+        <v>63588334</v>
       </c>
       <c r="C227" s="1">
-        <v>39679.0</v>
+        <v>39679</v>
       </c>
       <c r="D227" s="1">
-        <v>0.0623998106319313</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>6.2399810631931299E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B228" s="1">
-        <v>1.717974E7</v>
+        <v>17179740</v>
       </c>
       <c r="C228" s="1">
-        <v>7605.0</v>
+        <v>7605</v>
       </c>
       <c r="D228" s="1">
-        <v>0.0442672589922781</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>4.4267258992278097E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B229" s="1">
-        <v>2.5252722E7</v>
+        <v>25252722</v>
       </c>
       <c r="C229" s="1">
-        <v>9415.0</v>
+        <v>9415</v>
       </c>
       <c r="D229" s="1">
-        <v>0.0372831095198371</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>3.7283109519837099E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B230" s="1">
-        <v>3.2981641E7</v>
+        <v>32981641</v>
       </c>
       <c r="C230" s="1">
-        <v>11939.0</v>
+        <v>11939</v>
       </c>
       <c r="D230" s="1">
-        <v>0.0361989265482575</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>3.6198926548257501E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B231" s="1">
-        <v>2.5971909E7</v>
+        <v>25971909</v>
       </c>
       <c r="C231" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D231" s="2">
-        <v>3.85031381405194E-6</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>3.8503138140519398E-6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B232" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C232" s="1">
-        <v>721.0</v>
-      </c>
-      <c r="D232" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>565581</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B233" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C233" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D233" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>63065</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B234" s="1">
-        <v>6341855.0</v>
-      </c>
-      <c r="C234" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D234" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>170534</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B235" s="1">
-        <v>565581.0</v>
-      </c>
-      <c r="C235" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D235" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>109618</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B236" s="1">
-        <v>63065.0</v>
-      </c>
-      <c r="C236" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D236" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>49481</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="1">
-        <v>109618.0</v>
-      </c>
-      <c r="C237" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D237" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>1937</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B238" s="1">
-        <v>1937.0</v>
-      </c>
-      <c r="C238" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D238" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>47</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B239" s="1">
-        <v>49481.0</v>
-      </c>
-      <c r="C239" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D239" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>3256028</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B240" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="C240" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D240" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>44042</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B241" s="1">
-        <v>1849.0</v>
-      </c>
-      <c r="C241" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D241" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>1849</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B242" s="1">
-        <v>170534.0</v>
-      </c>
-      <c r="C242" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D242" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>6341855</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B243" s="1">
-        <v>44042.0</v>
-      </c>
-      <c r="C243" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D243" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>100091</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="1">
-        <v>3256028.0</v>
-      </c>
-      <c r="C244" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D244" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="245">
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="1">
-        <v>100091.0</v>
+      <c r="B245">
+        <v>0</v>
       </c>
       <c r="C245" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D245" s="1">
-        <v>0.0</v>
+        <v>721</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>